--- a/biology/Zoologie/Bornella_anguilla/Bornella_anguilla.xlsx
+++ b/biology/Zoologie/Bornella_anguilla/Bornella_anguilla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bornella anguilla est une espèce de gastéropode marin de la famille des Bornellidae.
-Il est présent dans les eaux tropicales de la zone Indo/OuestPacifique[2]. Sa taille maximale est de 8 cm[3].
+Il est présent dans les eaux tropicales de la zone Indo/OuestPacifique. Sa taille maximale est de 8 cm.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, anguilla, fait référence à la nage particulière de ce gastéropode qui fait penser à celle d'une anguille ou d'une blennie et qui semble unique pour un nudibranche[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, anguilla, fait référence à la nage particulière de ce gastéropode qui fait penser à celle d'une anguille ou d'une blennie et qui semble unique pour un nudibranche.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Johnson, 1984 : A New Indo-West Pacific Species of the Dendronotacean Nudibranch Bornella (Mollusca: Opisthobranchia) with Anguilliform Swimming Behavior. Micronesica, vol. 19, p. 17-26 (texte intégral) (en).</t>
         </is>
